--- a/올리브영_맨즈케어_전체데이터.xlsx
+++ b/올리브영_맨즈케어_전체데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Desktop\data-crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDA7319-B4D6-43EE-8971-927CC95C8155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F565384-CEA6-4122-8170-A7ECA29D5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13065" yWindow="2910" windowWidth="14535" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1663,9 +1663,6 @@
     <t>https://www.oliveyoung.co.kr/store/goods/getGoodsDetail.do?goodsNo=A000000011083&amp;dispCatNo=1000001000700080012&amp;t_page=%EC%B9%B4%ED%85%8C%EA%B3%A0%EB%A6%AC%EA%B4%80&amp;t_click=%EC%89%90%EB%94%A9/%ED%8C%8C%EC%9A%B0%EB%8D%94/%EA%B8%B0%EB%A6%84%EC%A2%85%EC%9D%B4_%EC%A0%84%EC%B2%B4__%EC%83%81%ED%92%88%EC%83%81%EC%84%B8&amp;t_number=7</t>
   </si>
   <si>
-    <t>다슈 맨즈 오일 컷 페이퍼 더블 기획 (80매+80매)</t>
-  </si>
-  <si>
     <t>11,000원</t>
   </si>
   <si>
@@ -1721,9 +1718,6 @@
   </si>
   <si>
     <t>https://www.oliveyoung.co.kr/store/goods/getGoodsDetail.do?goodsNo=A000000205935&amp;dispCatNo=1000001000700080012&amp;t_page=%EC%B9%B4%ED%85%8C%EA%B3%A0%EB%A6%AC%EA%B4%80&amp;t_click=%EC%89%90%EB%94%A9/%ED%8C%8C%EC%9A%B0%EB%8D%94/%EA%B8%B0%EB%A6%84%EC%A2%85%EC%9D%B4_%EC%A0%84%EC%B2%B4__%EC%83%81%ED%92%88%EC%83%81%EC%84%B8&amp;t_number=12</t>
-  </si>
-  <si>
-    <t>두잉왓 내추럴 오일 컨트롤 페이퍼 100매</t>
   </si>
   <si>
     <t>103_두잉왓 내추럴 오일 컨트롤 페이퍼 100매.jpg</t>
@@ -3102,6 +3096,14 @@
       </rPr>
       <t>건선</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다슈 맨즈 오일 컷 페이퍼 더블 기획 (80매+80매)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두잉왓 내추럴 오일 컨트롤 페이퍼 100매</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3218,17 +3220,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3535,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3580,13 +3582,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>993</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>995</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>11</v>
@@ -3627,13 +3629,13 @@
         <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="O2" t="s">
         <v>22</v>
@@ -3674,13 +3676,13 @@
         <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
@@ -3721,13 +3723,13 @@
         <v>37</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
@@ -3768,13 +3770,13 @@
         <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
@@ -3815,13 +3817,13 @@
         <v>49</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="O6" t="s">
         <v>50</v>
@@ -3862,13 +3864,13 @@
         <v>57</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O7" t="s">
         <v>58</v>
@@ -3909,13 +3911,13 @@
         <v>62</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O8" t="s">
         <v>63</v>
@@ -3956,13 +3958,13 @@
         <v>69</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O9" t="s">
         <v>70</v>
@@ -4003,13 +4005,13 @@
         <v>74</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O10" t="s">
         <v>75</v>
@@ -4050,13 +4052,13 @@
         <v>81</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O11" t="s">
         <v>82</v>
@@ -4097,13 +4099,13 @@
         <v>88</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O12" t="s">
         <v>89</v>
@@ -4144,13 +4146,13 @@
         <v>95</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O13" t="s">
         <v>96</v>
@@ -4191,13 +4193,13 @@
         <v>102</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O14" t="s">
         <v>103</v>
@@ -4238,13 +4240,13 @@
         <v>110</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O15" t="s">
         <v>111</v>
@@ -4285,13 +4287,13 @@
         <v>118</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O16" t="s">
         <v>119</v>
@@ -4332,13 +4334,13 @@
         <v>126</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="O17" t="s">
         <v>127</v>
@@ -4379,13 +4381,13 @@
         <v>128</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O18" t="s">
         <v>129</v>
@@ -4426,13 +4428,13 @@
         <v>133</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="O19" t="s">
         <v>134</v>
@@ -4473,13 +4475,13 @@
         <v>140</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O20" t="s">
         <v>141</v>
@@ -4520,13 +4522,13 @@
         <v>146</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O21" t="s">
         <v>147</v>
@@ -4567,13 +4569,13 @@
         <v>152</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="O22" t="s">
         <v>153</v>
@@ -4614,13 +4616,13 @@
         <v>156</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O23" t="s">
         <v>157</v>
@@ -4661,13 +4663,13 @@
         <v>162</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O24" t="s">
         <v>163</v>
@@ -4708,13 +4710,13 @@
         <v>168</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O25" t="s">
         <v>169</v>
@@ -4755,13 +4757,13 @@
         <v>173</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O26" t="s">
         <v>174</v>
@@ -4802,13 +4804,13 @@
         <v>179</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="O27" t="s">
         <v>180</v>
@@ -4849,13 +4851,13 @@
         <v>183</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O28" t="s">
         <v>184</v>
@@ -4896,13 +4898,13 @@
         <v>189</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>985</v>
       </c>
       <c r="O29" t="s">
         <v>190</v>
@@ -4943,13 +4945,13 @@
         <v>193</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O30" t="s">
         <v>194</v>
@@ -4990,13 +4992,13 @@
         <v>200</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O31" t="s">
         <v>201</v>
@@ -5037,13 +5039,13 @@
         <v>203</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O32" t="s">
         <v>204</v>
@@ -5084,13 +5086,13 @@
         <v>210</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O33" t="s">
         <v>211</v>
@@ -5131,13 +5133,13 @@
         <v>217</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O34" t="s">
         <v>218</v>
@@ -5178,13 +5180,13 @@
         <v>222</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O35" t="s">
         <v>223</v>
@@ -5225,13 +5227,13 @@
         <v>229</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O36" t="s">
         <v>230</v>
@@ -5272,13 +5274,13 @@
         <v>236</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O37" t="s">
         <v>237</v>
@@ -5319,13 +5321,13 @@
         <v>241</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O38" t="s">
         <v>242</v>
@@ -5366,13 +5368,13 @@
         <v>249</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O39" t="s">
         <v>250</v>
@@ -5413,13 +5415,13 @@
         <v>256</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="O40" t="s">
         <v>257</v>
@@ -5460,13 +5462,13 @@
         <v>262</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O41" t="s">
         <v>263</v>
@@ -5507,13 +5509,13 @@
         <v>268</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O42" t="s">
         <v>269</v>
@@ -5554,13 +5556,13 @@
         <v>273</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O43" t="s">
         <v>274</v>
@@ -5601,13 +5603,13 @@
         <v>279</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O44" t="s">
         <v>280</v>
@@ -5648,13 +5650,13 @@
         <v>286</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O45" t="s">
         <v>287</v>
@@ -5695,13 +5697,13 @@
         <v>292</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O46" t="s">
         <v>293</v>
@@ -5724,10 +5726,10 @@
         <v>112</v>
       </c>
       <c r="F47" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G47" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H47" t="s">
         <v>123</v>
@@ -5742,13 +5744,13 @@
         <v>295</v>
       </c>
       <c r="L47" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>1007</v>
-      </c>
       <c r="N47" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O47" t="s">
         <v>296</v>
@@ -5789,13 +5791,13 @@
         <v>297</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O48" t="s">
         <v>298</v>
@@ -5836,13 +5838,13 @@
         <v>299</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O49" t="s">
         <v>300</v>
@@ -5883,13 +5885,13 @@
         <v>301</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O50" t="s">
         <v>302</v>
@@ -5930,13 +5932,13 @@
         <v>303</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O51" t="s">
         <v>304</v>
@@ -5977,13 +5979,13 @@
         <v>305</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O52" t="s">
         <v>306</v>
@@ -6024,13 +6026,13 @@
         <v>307</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O53" t="s">
         <v>308</v>
@@ -6071,13 +6073,13 @@
         <v>309</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O54" t="s">
         <v>310</v>
@@ -6118,13 +6120,13 @@
         <v>315</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O55" t="s">
         <v>316</v>
@@ -6165,13 +6167,13 @@
         <v>321</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O56" t="s">
         <v>322</v>
@@ -6212,13 +6214,13 @@
         <v>327</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O57" t="s">
         <v>328</v>
@@ -6259,13 +6261,13 @@
         <v>332</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O58" t="s">
         <v>333</v>
@@ -6306,13 +6308,13 @@
         <v>339</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O59" t="s">
         <v>340</v>
@@ -6353,13 +6355,13 @@
         <v>344</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O60" t="s">
         <v>345</v>
@@ -6400,13 +6402,13 @@
         <v>350</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O61" t="s">
         <v>351</v>
@@ -6447,13 +6449,13 @@
         <v>357</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O62" t="s">
         <v>358</v>
@@ -6494,13 +6496,13 @@
         <v>361</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O63" t="s">
         <v>362</v>
@@ -6541,13 +6543,13 @@
         <v>365</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O64" t="s">
         <v>366</v>
@@ -6588,13 +6590,13 @@
         <v>371</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O65" t="s">
         <v>372</v>
@@ -6635,13 +6637,13 @@
         <v>377</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O66" t="s">
         <v>378</v>
@@ -6682,13 +6684,13 @@
         <v>382</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O67" t="s">
         <v>383</v>
@@ -6729,13 +6731,13 @@
         <v>386</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N68" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O68" t="s">
         <v>387</v>
@@ -6776,13 +6778,13 @@
         <v>391</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N69" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O69" t="s">
         <v>392</v>
@@ -6823,13 +6825,13 @@
         <v>397</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O70" t="s">
         <v>398</v>
@@ -6870,13 +6872,13 @@
         <v>402</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N71" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O71" t="s">
         <v>403</v>
@@ -6917,13 +6919,13 @@
         <v>409</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O72" t="s">
         <v>410</v>
@@ -6964,13 +6966,13 @@
         <v>415</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N73" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O73" t="s">
         <v>416</v>
@@ -7011,13 +7013,13 @@
         <v>420</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O74" t="s">
         <v>421</v>
@@ -7058,13 +7060,13 @@
         <v>424</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O75" t="s">
         <v>425</v>
@@ -7105,13 +7107,13 @@
         <v>431</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O76" t="s">
         <v>432</v>
@@ -7152,13 +7154,13 @@
         <v>438</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M77" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="N77" s="5" t="s">
         <v>999</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>1001</v>
       </c>
       <c r="O77" t="s">
         <v>439</v>
@@ -7199,13 +7201,13 @@
         <v>444</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M78" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N78" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O78" t="s">
         <v>445</v>
@@ -7246,13 +7248,13 @@
         <v>449</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O79" t="s">
         <v>450</v>
@@ -7293,13 +7295,13 @@
         <v>455</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M80" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O80" t="s">
         <v>456</v>
@@ -7340,13 +7342,13 @@
         <v>459</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O81" t="s">
         <v>460</v>
@@ -7387,13 +7389,13 @@
         <v>464</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O82" t="s">
         <v>465</v>
@@ -7434,13 +7436,13 @@
         <v>468</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N83" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O83" t="s">
         <v>469</v>
@@ -7481,13 +7483,13 @@
         <v>475</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O84" t="s">
         <v>476</v>
@@ -7528,13 +7530,13 @@
         <v>481</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M85" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O85" t="s">
         <v>482</v>
@@ -7575,13 +7577,13 @@
         <v>486</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O86" t="s">
         <v>487</v>
@@ -7622,13 +7624,13 @@
         <v>491</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M87" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O87" t="s">
         <v>492</v>
@@ -7669,13 +7671,13 @@
         <v>496</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="O88" t="s">
         <v>497</v>
@@ -7716,13 +7718,13 @@
         <v>501</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O89" t="s">
         <v>502</v>
@@ -7763,13 +7765,13 @@
         <v>507</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M90" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O90" t="s">
         <v>508</v>
@@ -7810,13 +7812,13 @@
         <v>511</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N91" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O91" t="s">
         <v>512</v>
@@ -7857,13 +7859,13 @@
         <v>514</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O92" t="s">
         <v>515</v>
@@ -7904,13 +7906,13 @@
         <v>519</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O93" t="s">
         <v>520</v>
@@ -7951,13 +7953,13 @@
         <v>523</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O94" t="s">
         <v>524</v>
@@ -7998,13 +8000,13 @@
         <v>529</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O95" t="s">
         <v>530</v>
@@ -8045,13 +8047,13 @@
         <v>534</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="N96" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O96" t="s">
         <v>535</v>
@@ -8092,13 +8094,13 @@
         <v>539</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N97" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O97" t="s">
         <v>540</v>
@@ -8139,13 +8141,13 @@
         <v>545</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O98" t="s">
         <v>546</v>
@@ -8168,7 +8170,7 @@
         <v>404</v>
       </c>
       <c r="F99" t="s">
-        <v>547</v>
+        <v>1007</v>
       </c>
       <c r="G99" t="s">
         <v>355</v>
@@ -8180,22 +8182,22 @@
         <v>355</v>
       </c>
       <c r="J99" t="s">
+        <v>547</v>
+      </c>
+      <c r="K99" t="s">
         <v>548</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M99" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O99" t="s">
         <v>549</v>
-      </c>
-      <c r="L99" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N99" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O99" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -8215,7 +8217,7 @@
         <v>404</v>
       </c>
       <c r="F100" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G100" t="s">
         <v>355</v>
@@ -8227,22 +8229,22 @@
         <v>355</v>
       </c>
       <c r="J100" t="s">
+        <v>551</v>
+      </c>
+      <c r="K100" t="s">
         <v>552</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O100" t="s">
         <v>553</v>
-      </c>
-      <c r="L100" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N100" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O100" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -8262,7 +8264,7 @@
         <v>359</v>
       </c>
       <c r="F101" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G101" t="s">
         <v>214</v>
@@ -8271,25 +8273,25 @@
         <v>54</v>
       </c>
       <c r="I101" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J101" t="s">
         <v>209</v>
       </c>
       <c r="K101" t="s">
+        <v>555</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="O101" t="s">
         <v>556</v>
-      </c>
-      <c r="L101" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M101" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O101" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -8309,7 +8311,7 @@
         <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G102" t="s">
         <v>380</v>
@@ -8318,25 +8320,25 @@
         <v>26</v>
       </c>
       <c r="I102" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J102" t="s">
         <v>414</v>
       </c>
       <c r="K102" t="s">
+        <v>559</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="O102" t="s">
         <v>560</v>
-      </c>
-      <c r="L102" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M102" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N102" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O102" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -8356,34 +8358,34 @@
         <v>388</v>
       </c>
       <c r="F103" t="s">
+        <v>561</v>
+      </c>
+      <c r="G103" t="s">
         <v>562</v>
-      </c>
-      <c r="G103" t="s">
-        <v>563</v>
       </c>
       <c r="H103" t="s">
         <v>85</v>
       </c>
       <c r="I103" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J103" t="s">
         <v>430</v>
       </c>
       <c r="K103" t="s">
+        <v>564</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="O103" t="s">
         <v>565</v>
-      </c>
-      <c r="L103" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M103" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N103" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O103" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -8403,7 +8405,7 @@
         <v>212</v>
       </c>
       <c r="F104" t="s">
-        <v>567</v>
+        <v>1008</v>
       </c>
       <c r="G104" t="s">
         <v>355</v>
@@ -8415,22 +8417,22 @@
         <v>355</v>
       </c>
       <c r="J104" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K104" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N104" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O104" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -8450,7 +8452,7 @@
         <v>363</v>
       </c>
       <c r="F105" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G105" t="s">
         <v>380</v>
@@ -8459,25 +8461,25 @@
         <v>107</v>
       </c>
       <c r="I105" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J105" t="s">
         <v>261</v>
       </c>
       <c r="K105" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O105" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -8497,7 +8499,7 @@
         <v>238</v>
       </c>
       <c r="F106" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G106" t="s">
         <v>517</v>
@@ -8506,25 +8508,25 @@
         <v>54</v>
       </c>
       <c r="I106" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J106" t="s">
         <v>151</v>
       </c>
       <c r="K106" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O106" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -8538,40 +8540,40 @@
         <v>352</v>
       </c>
       <c r="D107" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E107" t="s">
         <v>195</v>
       </c>
       <c r="F107" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G107" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H107" t="s">
         <v>115</v>
       </c>
       <c r="I107" t="s">
+        <v>579</v>
+      </c>
+      <c r="J107" t="s">
+        <v>580</v>
+      </c>
+      <c r="K107" t="s">
         <v>581</v>
       </c>
-      <c r="J107" t="s">
+      <c r="L107" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M107" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O107" t="s">
         <v>582</v>
-      </c>
-      <c r="K107" t="s">
-        <v>583</v>
-      </c>
-      <c r="L107" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M107" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O107" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -8585,40 +8587,40 @@
         <v>352</v>
       </c>
       <c r="D108" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E108" t="s">
+        <v>583</v>
+      </c>
+      <c r="F108" t="s">
+        <v>584</v>
+      </c>
+      <c r="G108" t="s">
         <v>585</v>
-      </c>
-      <c r="F108" t="s">
-        <v>586</v>
-      </c>
-      <c r="G108" t="s">
-        <v>587</v>
       </c>
       <c r="H108" t="s">
         <v>54</v>
       </c>
       <c r="I108" t="s">
+        <v>586</v>
+      </c>
+      <c r="J108" t="s">
+        <v>587</v>
+      </c>
+      <c r="K108" t="s">
         <v>588</v>
       </c>
-      <c r="J108" t="s">
+      <c r="L108" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M108" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O108" t="s">
         <v>589</v>
-      </c>
-      <c r="K108" t="s">
-        <v>590</v>
-      </c>
-      <c r="L108" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="M108" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N108" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O108" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -8632,40 +8634,40 @@
         <v>352</v>
       </c>
       <c r="D109" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E109" t="s">
         <v>388</v>
       </c>
       <c r="F109" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G109" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H109" t="s">
         <v>54</v>
       </c>
       <c r="I109" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J109" t="s">
         <v>396</v>
       </c>
       <c r="K109" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="O109" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="38.25" x14ac:dyDescent="0.3">
@@ -8679,40 +8681,40 @@
         <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E110" t="s">
         <v>359</v>
       </c>
       <c r="F110" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G110" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H110" t="s">
         <v>78</v>
       </c>
       <c r="I110" t="s">
+        <v>597</v>
+      </c>
+      <c r="J110" t="s">
+        <v>598</v>
+      </c>
+      <c r="K110" t="s">
         <v>599</v>
       </c>
-      <c r="J110" t="s">
+      <c r="L110" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="O110" t="s">
         <v>600</v>
-      </c>
-      <c r="K110" t="s">
-        <v>601</v>
-      </c>
-      <c r="L110" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N110" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O110" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -8726,40 +8728,40 @@
         <v>352</v>
       </c>
       <c r="D111" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E111" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F111" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G111" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H111" t="s">
         <v>54</v>
       </c>
       <c r="I111" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J111" t="s">
         <v>272</v>
       </c>
       <c r="K111" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O111" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="38.25" x14ac:dyDescent="0.3">
@@ -8773,40 +8775,40 @@
         <v>352</v>
       </c>
       <c r="D112" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E112" t="s">
         <v>359</v>
       </c>
       <c r="F112" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G112" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H112" t="s">
         <v>78</v>
       </c>
       <c r="I112" t="s">
+        <v>607</v>
+      </c>
+      <c r="J112" t="s">
+        <v>608</v>
+      </c>
+      <c r="K112" t="s">
         <v>609</v>
       </c>
-      <c r="J112" t="s">
+      <c r="L112" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="O112" t="s">
         <v>610</v>
-      </c>
-      <c r="K112" t="s">
-        <v>611</v>
-      </c>
-      <c r="L112" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M112" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N112" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O112" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -8820,13 +8822,13 @@
         <v>352</v>
       </c>
       <c r="D113" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E113" t="s">
         <v>23</v>
       </c>
       <c r="F113" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G113" t="s">
         <v>542</v>
@@ -8835,25 +8837,25 @@
         <v>54</v>
       </c>
       <c r="I113" t="s">
+        <v>612</v>
+      </c>
+      <c r="J113" t="s">
+        <v>547</v>
+      </c>
+      <c r="K113" t="s">
+        <v>613</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O113" t="s">
         <v>614</v>
-      </c>
-      <c r="J113" t="s">
-        <v>548</v>
-      </c>
-      <c r="K113" t="s">
-        <v>615</v>
-      </c>
-      <c r="L113" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N113" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O113" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
@@ -8867,40 +8869,40 @@
         <v>352</v>
       </c>
       <c r="D114" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E114" t="s">
         <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G114" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H114" t="s">
         <v>107</v>
       </c>
       <c r="I114" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="J114" t="s">
         <v>255</v>
       </c>
       <c r="K114" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O114" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -8914,40 +8916,40 @@
         <v>352</v>
       </c>
       <c r="D115" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E115" t="s">
         <v>388</v>
       </c>
       <c r="F115" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G115" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H115" t="s">
         <v>85</v>
       </c>
       <c r="I115" t="s">
+        <v>622</v>
+      </c>
+      <c r="J115" t="s">
+        <v>623</v>
+      </c>
+      <c r="K115" t="s">
         <v>624</v>
       </c>
-      <c r="J115" t="s">
+      <c r="L115" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="O115" t="s">
         <v>625</v>
-      </c>
-      <c r="K115" t="s">
-        <v>626</v>
-      </c>
-      <c r="L115" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M115" s="5" t="s">
-        <v>998</v>
-      </c>
-      <c r="N115" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="O115" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -8961,13 +8963,13 @@
         <v>352</v>
       </c>
       <c r="D116" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E116" t="s">
         <v>404</v>
       </c>
       <c r="F116" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G116" t="s">
         <v>542</v>
@@ -8976,25 +8978,25 @@
         <v>479</v>
       </c>
       <c r="I116" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="J116" t="s">
         <v>209</v>
       </c>
       <c r="K116" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N116" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O116" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -9008,40 +9010,40 @@
         <v>352</v>
       </c>
       <c r="D117" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E117" t="s">
         <v>367</v>
       </c>
       <c r="F117" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G117" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H117" t="s">
         <v>115</v>
       </c>
       <c r="I117" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="J117" t="s">
         <v>188</v>
       </c>
       <c r="K117" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L117" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N117" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O117" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
@@ -9055,40 +9057,40 @@
         <v>352</v>
       </c>
       <c r="D118" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E118" t="s">
         <v>90</v>
       </c>
       <c r="F118" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G118" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H118" t="s">
         <v>54</v>
       </c>
       <c r="I118" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J118" t="s">
         <v>261</v>
       </c>
       <c r="K118" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O118" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -9102,40 +9104,40 @@
         <v>352</v>
       </c>
       <c r="D119" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E119" t="s">
+        <v>638</v>
+      </c>
+      <c r="F119" t="s">
+        <v>639</v>
+      </c>
+      <c r="G119" t="s">
         <v>640</v>
-      </c>
-      <c r="F119" t="s">
-        <v>641</v>
-      </c>
-      <c r="G119" t="s">
-        <v>642</v>
       </c>
       <c r="H119" t="s">
         <v>115</v>
       </c>
       <c r="I119" t="s">
+        <v>641</v>
+      </c>
+      <c r="J119" t="s">
+        <v>587</v>
+      </c>
+      <c r="K119" t="s">
+        <v>642</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="O119" t="s">
         <v>643</v>
-      </c>
-      <c r="J119" t="s">
-        <v>589</v>
-      </c>
-      <c r="K119" t="s">
-        <v>644</v>
-      </c>
-      <c r="L119" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N119" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="O119" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
@@ -9149,40 +9151,40 @@
         <v>352</v>
       </c>
       <c r="D120" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E120" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F120" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G120" t="s">
         <v>542</v>
       </c>
       <c r="H120" t="s">
+        <v>646</v>
+      </c>
+      <c r="I120" t="s">
+        <v>647</v>
+      </c>
+      <c r="J120" t="s">
         <v>648</v>
       </c>
-      <c r="I120" t="s">
+      <c r="K120" t="s">
         <v>649</v>
       </c>
-      <c r="J120" t="s">
+      <c r="L120" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O120" t="s">
         <v>650</v>
-      </c>
-      <c r="K120" t="s">
-        <v>651</v>
-      </c>
-      <c r="L120" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="M120" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N120" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O120" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
@@ -9196,40 +9198,40 @@
         <v>352</v>
       </c>
       <c r="D121" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E121" t="s">
         <v>388</v>
       </c>
       <c r="F121" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G121" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H121" t="s">
         <v>85</v>
       </c>
       <c r="I121" t="s">
+        <v>653</v>
+      </c>
+      <c r="J121" t="s">
+        <v>623</v>
+      </c>
+      <c r="K121" t="s">
+        <v>654</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O121" t="s">
         <v>655</v>
-      </c>
-      <c r="J121" t="s">
-        <v>625</v>
-      </c>
-      <c r="K121" t="s">
-        <v>656</v>
-      </c>
-      <c r="L121" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>1002</v>
-      </c>
-      <c r="O121" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
@@ -9243,40 +9245,40 @@
         <v>352</v>
       </c>
       <c r="D122" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E122" t="s">
         <v>195</v>
       </c>
       <c r="F122" t="s">
+        <v>657</v>
+      </c>
+      <c r="G122" t="s">
+        <v>658</v>
+      </c>
+      <c r="H122" t="s">
         <v>659</v>
       </c>
-      <c r="G122" t="s">
+      <c r="I122" t="s">
         <v>660</v>
       </c>
-      <c r="H122" t="s">
+      <c r="J122" t="s">
+        <v>580</v>
+      </c>
+      <c r="K122" t="s">
         <v>661</v>
       </c>
-      <c r="I122" t="s">
+      <c r="L122" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O122" t="s">
         <v>662</v>
-      </c>
-      <c r="J122" t="s">
-        <v>582</v>
-      </c>
-      <c r="K122" t="s">
-        <v>663</v>
-      </c>
-      <c r="L122" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N122" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O122" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
@@ -9290,40 +9292,40 @@
         <v>352</v>
       </c>
       <c r="D123" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E123" t="s">
         <v>404</v>
       </c>
       <c r="F123" t="s">
+        <v>663</v>
+      </c>
+      <c r="G123" t="s">
+        <v>664</v>
+      </c>
+      <c r="H123" t="s">
         <v>665</v>
       </c>
-      <c r="G123" t="s">
+      <c r="I123" t="s">
         <v>666</v>
-      </c>
-      <c r="H123" t="s">
-        <v>667</v>
-      </c>
-      <c r="I123" t="s">
-        <v>668</v>
       </c>
       <c r="J123" t="s">
         <v>414</v>
       </c>
       <c r="K123" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O123" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
@@ -9337,40 +9339,40 @@
         <v>352</v>
       </c>
       <c r="D124" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E124" t="s">
         <v>195</v>
       </c>
       <c r="F124" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G124" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H124" t="s">
         <v>115</v>
       </c>
       <c r="I124" t="s">
+        <v>671</v>
+      </c>
+      <c r="J124" t="s">
+        <v>672</v>
+      </c>
+      <c r="K124" t="s">
         <v>673</v>
       </c>
-      <c r="J124" t="s">
+      <c r="L124" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="O124" t="s">
         <v>674</v>
-      </c>
-      <c r="K124" t="s">
-        <v>675</v>
-      </c>
-      <c r="L124" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N124" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O124" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
@@ -9384,40 +9386,40 @@
         <v>352</v>
       </c>
       <c r="D125" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E125" t="s">
         <v>367</v>
       </c>
       <c r="F125" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G125" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H125" t="s">
         <v>115</v>
       </c>
       <c r="I125" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J125" t="s">
         <v>408</v>
       </c>
       <c r="K125" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M125" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O125" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
@@ -9431,40 +9433,40 @@
         <v>352</v>
       </c>
       <c r="D126" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E126" t="s">
         <v>359</v>
       </c>
       <c r="F126" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G126" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H126" t="s">
         <v>78</v>
       </c>
       <c r="I126" t="s">
+        <v>682</v>
+      </c>
+      <c r="J126" t="s">
+        <v>608</v>
+      </c>
+      <c r="K126" t="s">
+        <v>683</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O126" t="s">
         <v>684</v>
-      </c>
-      <c r="J126" t="s">
-        <v>610</v>
-      </c>
-      <c r="K126" t="s">
-        <v>685</v>
-      </c>
-      <c r="L126" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N126" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O126" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
@@ -9478,40 +9480,40 @@
         <v>352</v>
       </c>
       <c r="D127" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E127" t="s">
         <v>388</v>
       </c>
       <c r="F127" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G127" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H127" t="s">
         <v>85</v>
       </c>
       <c r="I127" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J127" t="s">
         <v>248</v>
       </c>
       <c r="K127" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O127" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.3">
@@ -9525,40 +9527,40 @@
         <v>352</v>
       </c>
       <c r="D128" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E128" t="s">
         <v>388</v>
       </c>
       <c r="F128" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G128" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H128" t="s">
         <v>85</v>
       </c>
       <c r="I128" t="s">
+        <v>692</v>
+      </c>
+      <c r="J128" t="s">
+        <v>693</v>
+      </c>
+      <c r="K128" t="s">
         <v>694</v>
       </c>
-      <c r="J128" t="s">
+      <c r="L128" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O128" t="s">
         <v>695</v>
-      </c>
-      <c r="K128" t="s">
-        <v>696</v>
-      </c>
-      <c r="L128" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N128" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O128" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.3">
@@ -9572,40 +9574,40 @@
         <v>352</v>
       </c>
       <c r="D129" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E129" t="s">
         <v>417</v>
       </c>
       <c r="F129" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G129" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H129" t="s">
         <v>26</v>
       </c>
       <c r="I129" t="s">
+        <v>698</v>
+      </c>
+      <c r="J129" t="s">
+        <v>693</v>
+      </c>
+      <c r="K129" t="s">
+        <v>699</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O129" t="s">
         <v>700</v>
-      </c>
-      <c r="J129" t="s">
-        <v>695</v>
-      </c>
-      <c r="K129" t="s">
-        <v>701</v>
-      </c>
-      <c r="L129" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="N129" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O129" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -9619,40 +9621,40 @@
         <v>352</v>
       </c>
       <c r="D130" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E130" t="s">
+        <v>701</v>
+      </c>
+      <c r="F130" t="s">
+        <v>702</v>
+      </c>
+      <c r="G130" t="s">
         <v>703</v>
       </c>
-      <c r="F130" t="s">
+      <c r="H130" t="s">
         <v>704</v>
       </c>
-      <c r="G130" t="s">
+      <c r="I130" t="s">
         <v>705</v>
-      </c>
-      <c r="H130" t="s">
-        <v>706</v>
-      </c>
-      <c r="I130" t="s">
-        <v>707</v>
       </c>
       <c r="J130" t="s">
         <v>414</v>
       </c>
       <c r="K130" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M130" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N130" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O130" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.3">
@@ -9666,40 +9668,40 @@
         <v>352</v>
       </c>
       <c r="D131" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E131" t="s">
+        <v>708</v>
+      </c>
+      <c r="F131" t="s">
+        <v>709</v>
+      </c>
+      <c r="G131" t="s">
         <v>710</v>
-      </c>
-      <c r="F131" t="s">
-        <v>711</v>
-      </c>
-      <c r="G131" t="s">
-        <v>712</v>
       </c>
       <c r="H131" t="s">
         <v>26</v>
       </c>
       <c r="I131" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J131" t="s">
         <v>408</v>
       </c>
       <c r="K131" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M131" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N131" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O131" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -9713,40 +9715,40 @@
         <v>352</v>
       </c>
       <c r="D132" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E132" t="s">
         <v>212</v>
       </c>
       <c r="F132" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G132" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H132" t="s">
         <v>54</v>
       </c>
       <c r="I132" t="s">
+        <v>716</v>
+      </c>
+      <c r="J132" t="s">
+        <v>693</v>
+      </c>
+      <c r="K132" t="s">
+        <v>717</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N132" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="O132" t="s">
         <v>718</v>
-      </c>
-      <c r="J132" t="s">
-        <v>695</v>
-      </c>
-      <c r="K132" t="s">
-        <v>719</v>
-      </c>
-      <c r="L132" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M132" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N132" s="5" t="s">
-        <v>982</v>
-      </c>
-      <c r="O132" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.3">
@@ -9760,40 +9762,40 @@
         <v>352</v>
       </c>
       <c r="D133" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E133" t="s">
         <v>363</v>
       </c>
       <c r="F133" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G133" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H133" t="s">
         <v>107</v>
       </c>
       <c r="I133" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J133" t="s">
         <v>261</v>
       </c>
       <c r="K133" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L133" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M133" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N133" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O133" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.3">
@@ -9807,40 +9809,40 @@
         <v>352</v>
       </c>
       <c r="D134" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E134" t="s">
+        <v>723</v>
+      </c>
+      <c r="F134" t="s">
+        <v>724</v>
+      </c>
+      <c r="G134" t="s">
         <v>725</v>
-      </c>
-      <c r="F134" t="s">
-        <v>726</v>
-      </c>
-      <c r="G134" t="s">
-        <v>727</v>
       </c>
       <c r="H134" t="s">
         <v>54</v>
       </c>
       <c r="I134" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J134" t="s">
         <v>248</v>
       </c>
       <c r="K134" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="L134" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M134" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O134" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.3">
@@ -9854,13 +9856,13 @@
         <v>352</v>
       </c>
       <c r="D135" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E135" t="s">
         <v>359</v>
       </c>
       <c r="F135" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="G135" t="s">
         <v>214</v>
@@ -9869,25 +9871,25 @@
         <v>78</v>
       </c>
       <c r="I135" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J135" t="s">
         <v>228</v>
       </c>
       <c r="K135" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O135" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -9901,40 +9903,40 @@
         <v>352</v>
       </c>
       <c r="D136" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E136" t="s">
         <v>399</v>
       </c>
       <c r="F136" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G136" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H136" t="s">
         <v>26</v>
       </c>
       <c r="I136" t="s">
+        <v>734</v>
+      </c>
+      <c r="J136" t="s">
+        <v>735</v>
+      </c>
+      <c r="K136" t="s">
         <v>736</v>
       </c>
-      <c r="J136" t="s">
+      <c r="L136" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N136" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="O136" t="s">
         <v>737</v>
-      </c>
-      <c r="K136" t="s">
-        <v>738</v>
-      </c>
-      <c r="L136" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="M136" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N136" s="5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="O136" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -9945,43 +9947,43 @@
         <v>12</v>
       </c>
       <c r="C137" t="s">
+        <v>738</v>
+      </c>
+      <c r="D137" t="s">
+        <v>739</v>
+      </c>
+      <c r="E137" t="s">
         <v>740</v>
       </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
         <v>741</v>
       </c>
-      <c r="E137" t="s">
+      <c r="G137" t="s">
         <v>742</v>
       </c>
-      <c r="F137" t="s">
+      <c r="H137" t="s">
         <v>743</v>
       </c>
-      <c r="G137" t="s">
+      <c r="I137" t="s">
         <v>744</v>
-      </c>
-      <c r="H137" t="s">
-        <v>745</v>
-      </c>
-      <c r="I137" t="s">
-        <v>746</v>
       </c>
       <c r="J137" t="s">
         <v>61</v>
       </c>
       <c r="K137" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L137" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N137" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O137" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -9992,43 +9994,43 @@
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D138" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E138" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F138" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G138" t="s">
         <v>40</v>
       </c>
       <c r="H138" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I138" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J138" t="s">
         <v>209</v>
       </c>
       <c r="K138" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O138" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.3">
@@ -10039,43 +10041,43 @@
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D139" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E139" t="s">
         <v>404</v>
       </c>
       <c r="F139" t="s">
+        <v>753</v>
+      </c>
+      <c r="G139" t="s">
+        <v>754</v>
+      </c>
+      <c r="H139" t="s">
         <v>755</v>
       </c>
-      <c r="G139" t="s">
+      <c r="I139" t="s">
         <v>756</v>
-      </c>
-      <c r="H139" t="s">
-        <v>757</v>
-      </c>
-      <c r="I139" t="s">
-        <v>758</v>
       </c>
       <c r="J139" t="s">
         <v>209</v>
       </c>
       <c r="K139" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M139" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O139" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.3">
@@ -10086,43 +10088,43 @@
         <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D140" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E140" t="s">
         <v>404</v>
       </c>
       <c r="F140" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G140" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H140" t="s">
         <v>26</v>
       </c>
       <c r="I140" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J140" t="s">
         <v>408</v>
       </c>
       <c r="K140" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M140" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O140" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.3">
@@ -10133,43 +10135,43 @@
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D141" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E141" t="s">
         <v>404</v>
       </c>
       <c r="F141" t="s">
+        <v>764</v>
+      </c>
+      <c r="G141" t="s">
+        <v>765</v>
+      </c>
+      <c r="H141" t="s">
+        <v>755</v>
+      </c>
+      <c r="I141" t="s">
         <v>766</v>
-      </c>
-      <c r="G141" t="s">
-        <v>767</v>
-      </c>
-      <c r="H141" t="s">
-        <v>757</v>
-      </c>
-      <c r="I141" t="s">
-        <v>768</v>
       </c>
       <c r="J141" t="s">
         <v>209</v>
       </c>
       <c r="K141" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M141" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O141" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.3">
@@ -10180,43 +10182,43 @@
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D142" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E142" t="s">
+        <v>769</v>
+      </c>
+      <c r="F142" t="s">
+        <v>770</v>
+      </c>
+      <c r="G142" t="s">
         <v>771</v>
       </c>
-      <c r="F142" t="s">
+      <c r="H142" t="s">
         <v>772</v>
       </c>
-      <c r="G142" t="s">
+      <c r="I142" t="s">
         <v>773</v>
-      </c>
-      <c r="H142" t="s">
-        <v>774</v>
-      </c>
-      <c r="I142" t="s">
-        <v>775</v>
       </c>
       <c r="J142" t="s">
         <v>474</v>
       </c>
       <c r="K142" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M142" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O142" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10227,43 +10229,43 @@
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D143" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E143" t="s">
+        <v>776</v>
+      </c>
+      <c r="F143" t="s">
+        <v>777</v>
+      </c>
+      <c r="G143" t="s">
         <v>778</v>
       </c>
-      <c r="F143" t="s">
+      <c r="H143" t="s">
         <v>779</v>
       </c>
-      <c r="G143" t="s">
+      <c r="I143" t="s">
         <v>780</v>
-      </c>
-      <c r="H143" t="s">
-        <v>781</v>
-      </c>
-      <c r="I143" t="s">
-        <v>782</v>
       </c>
       <c r="J143" t="s">
         <v>216</v>
       </c>
       <c r="K143" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M143" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N143" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O143" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10274,43 +10276,43 @@
         <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D144" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E144" t="s">
         <v>388</v>
       </c>
       <c r="F144" t="s">
+        <v>783</v>
+      </c>
+      <c r="G144" t="s">
+        <v>784</v>
+      </c>
+      <c r="H144" t="s">
+        <v>755</v>
+      </c>
+      <c r="I144" t="s">
         <v>785</v>
-      </c>
-      <c r="G144" t="s">
-        <v>786</v>
-      </c>
-      <c r="H144" t="s">
-        <v>757</v>
-      </c>
-      <c r="I144" t="s">
-        <v>787</v>
       </c>
       <c r="J144" t="s">
         <v>430</v>
       </c>
       <c r="K144" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M144" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O144" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10321,43 +10323,43 @@
         <v>12</v>
       </c>
       <c r="C145" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D145" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E145" t="s">
+        <v>788</v>
+      </c>
+      <c r="F145" t="s">
+        <v>789</v>
+      </c>
+      <c r="G145" t="s">
         <v>790</v>
-      </c>
-      <c r="F145" t="s">
-        <v>791</v>
-      </c>
-      <c r="G145" t="s">
-        <v>792</v>
       </c>
       <c r="H145" t="s">
         <v>198</v>
       </c>
       <c r="I145" t="s">
+        <v>791</v>
+      </c>
+      <c r="J145" t="s">
+        <v>792</v>
+      </c>
+      <c r="K145" t="s">
         <v>793</v>
       </c>
-      <c r="J145" t="s">
+      <c r="L145" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N145" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="O145" t="s">
         <v>794</v>
-      </c>
-      <c r="K145" t="s">
-        <v>795</v>
-      </c>
-      <c r="L145" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M145" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N145" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="O145" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10368,43 +10370,43 @@
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D146" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E146" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F146" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G146" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H146" t="s">
         <v>26</v>
       </c>
       <c r="I146" t="s">
+        <v>797</v>
+      </c>
+      <c r="J146" t="s">
+        <v>798</v>
+      </c>
+      <c r="K146" t="s">
         <v>799</v>
       </c>
-      <c r="J146" t="s">
+      <c r="L146" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N146" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="O146" t="s">
         <v>800</v>
-      </c>
-      <c r="K146" t="s">
-        <v>801</v>
-      </c>
-      <c r="L146" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M146" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N146" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="O146" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.3">
@@ -10415,43 +10417,43 @@
         <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D147" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E147" t="s">
+        <v>801</v>
+      </c>
+      <c r="F147" t="s">
+        <v>802</v>
+      </c>
+      <c r="G147" t="s">
         <v>803</v>
       </c>
-      <c r="F147" t="s">
+      <c r="H147" t="s">
         <v>804</v>
       </c>
-      <c r="G147" t="s">
+      <c r="I147" t="s">
         <v>805</v>
-      </c>
-      <c r="H147" t="s">
-        <v>806</v>
-      </c>
-      <c r="I147" t="s">
-        <v>807</v>
       </c>
       <c r="J147" t="s">
         <v>209</v>
       </c>
       <c r="K147" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O147" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10462,43 +10464,43 @@
         <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D148" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E148" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F148" t="s">
+        <v>808</v>
+      </c>
+      <c r="G148" t="s">
+        <v>809</v>
+      </c>
+      <c r="H148" t="s">
         <v>810</v>
       </c>
-      <c r="G148" t="s">
+      <c r="I148" t="s">
         <v>811</v>
       </c>
-      <c r="H148" t="s">
+      <c r="J148" t="s">
         <v>812</v>
       </c>
-      <c r="I148" t="s">
+      <c r="K148" t="s">
         <v>813</v>
       </c>
-      <c r="J148" t="s">
+      <c r="L148" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N148" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="O148" t="s">
         <v>814</v>
-      </c>
-      <c r="K148" t="s">
-        <v>815</v>
-      </c>
-      <c r="L148" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M148" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N148" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="O148" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="38.25" x14ac:dyDescent="0.3">
@@ -10509,43 +10511,43 @@
         <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D149" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E149" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F149" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G149" t="s">
         <v>171</v>
       </c>
       <c r="H149" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I149" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J149" t="s">
         <v>68</v>
       </c>
       <c r="K149" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M149" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="N149" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O149" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10556,43 +10558,43 @@
         <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D150" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E150" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F150" t="s">
+        <v>820</v>
+      </c>
+      <c r="G150" t="s">
+        <v>821</v>
+      </c>
+      <c r="H150" t="s">
         <v>822</v>
       </c>
-      <c r="G150" t="s">
+      <c r="I150" t="s">
         <v>823</v>
       </c>
-      <c r="H150" t="s">
+      <c r="J150" t="s">
+        <v>792</v>
+      </c>
+      <c r="K150" t="s">
         <v>824</v>
       </c>
-      <c r="I150" t="s">
+      <c r="L150" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N150" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="O150" t="s">
         <v>825</v>
-      </c>
-      <c r="J150" t="s">
-        <v>794</v>
-      </c>
-      <c r="K150" t="s">
-        <v>826</v>
-      </c>
-      <c r="L150" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="M150" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N150" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="O150" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.3">
@@ -10603,43 +10605,43 @@
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D151" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E151" t="s">
         <v>404</v>
       </c>
       <c r="F151" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G151" t="s">
+        <v>754</v>
+      </c>
+      <c r="H151" t="s">
+        <v>755</v>
+      </c>
+      <c r="I151" t="s">
         <v>756</v>
-      </c>
-      <c r="H151" t="s">
-        <v>757</v>
-      </c>
-      <c r="I151" t="s">
-        <v>758</v>
       </c>
       <c r="J151" t="s">
         <v>408</v>
       </c>
       <c r="K151" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="L151" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M151" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N151" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O151" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="51" x14ac:dyDescent="0.3">
@@ -10650,43 +10652,43 @@
         <v>12</v>
       </c>
       <c r="C152" t="s">
+        <v>738</v>
+      </c>
+      <c r="D152" t="s">
+        <v>829</v>
+      </c>
+      <c r="E152" t="s">
         <v>740</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" t="s">
+        <v>830</v>
+      </c>
+      <c r="G152" t="s">
         <v>831</v>
       </c>
-      <c r="E152" t="s">
-        <v>742</v>
-      </c>
-      <c r="F152" t="s">
+      <c r="H152" t="s">
         <v>832</v>
       </c>
-      <c r="G152" t="s">
+      <c r="I152" t="s">
         <v>833</v>
-      </c>
-      <c r="H152" t="s">
-        <v>834</v>
-      </c>
-      <c r="I152" t="s">
-        <v>835</v>
       </c>
       <c r="J152" t="s">
         <v>454</v>
       </c>
       <c r="K152" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="L152" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N152" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O152" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10697,43 +10699,43 @@
         <v>12</v>
       </c>
       <c r="C153" t="s">
+        <v>738</v>
+      </c>
+      <c r="D153" t="s">
+        <v>829</v>
+      </c>
+      <c r="E153" t="s">
         <v>740</v>
       </c>
-      <c r="D153" t="s">
-        <v>831</v>
-      </c>
-      <c r="E153" t="s">
-        <v>742</v>
-      </c>
       <c r="F153" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G153" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H153" t="s">
         <v>78</v>
       </c>
       <c r="I153" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J153" t="s">
         <v>408</v>
       </c>
       <c r="K153" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O153" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10744,43 +10746,43 @@
         <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D154" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E154" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F154" t="s">
+        <v>841</v>
+      </c>
+      <c r="G154" t="s">
+        <v>842</v>
+      </c>
+      <c r="H154" t="s">
         <v>843</v>
       </c>
-      <c r="G154" t="s">
+      <c r="I154" t="s">
         <v>844</v>
       </c>
-      <c r="H154" t="s">
+      <c r="J154" t="s">
         <v>845</v>
       </c>
-      <c r="I154" t="s">
+      <c r="K154" t="s">
         <v>846</v>
       </c>
-      <c r="J154" t="s">
+      <c r="L154" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N154" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="O154" t="s">
         <v>847</v>
-      </c>
-      <c r="K154" t="s">
-        <v>848</v>
-      </c>
-      <c r="L154" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M154" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N154" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="O154" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="38.25" x14ac:dyDescent="0.3">
@@ -10791,43 +10793,43 @@
         <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D155" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E155" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F155" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G155" t="s">
         <v>171</v>
       </c>
       <c r="H155" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I155" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J155" t="s">
         <v>68</v>
       </c>
       <c r="K155" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="L155" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M155" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="N155" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O155" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10838,43 +10840,43 @@
         <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D156" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E156" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F156" t="s">
+        <v>850</v>
+      </c>
+      <c r="G156" t="s">
+        <v>742</v>
+      </c>
+      <c r="H156" t="s">
+        <v>851</v>
+      </c>
+      <c r="I156" t="s">
         <v>852</v>
-      </c>
-      <c r="G156" t="s">
-        <v>744</v>
-      </c>
-      <c r="H156" t="s">
-        <v>853</v>
-      </c>
-      <c r="I156" t="s">
-        <v>854</v>
       </c>
       <c r="J156" t="s">
         <v>544</v>
       </c>
       <c r="K156" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="O156" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10885,43 +10887,43 @@
         <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D157" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E157" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F157" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G157" t="s">
         <v>17</v>
       </c>
       <c r="H157" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I157" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J157" t="s">
         <v>320</v>
       </c>
       <c r="K157" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="L157" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M157" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N157" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="O157" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -10932,43 +10934,43 @@
         <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D158" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E158" t="s">
         <v>388</v>
       </c>
       <c r="F158" t="s">
+        <v>861</v>
+      </c>
+      <c r="G158" t="s">
+        <v>862</v>
+      </c>
+      <c r="H158" t="s">
+        <v>755</v>
+      </c>
+      <c r="I158" t="s">
         <v>863</v>
       </c>
-      <c r="G158" t="s">
+      <c r="J158" t="s">
         <v>864</v>
       </c>
-      <c r="H158" t="s">
-        <v>757</v>
-      </c>
-      <c r="I158" t="s">
+      <c r="K158" t="s">
         <v>865</v>
       </c>
-      <c r="J158" t="s">
+      <c r="L158" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N158" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="O158" t="s">
         <v>866</v>
-      </c>
-      <c r="K158" t="s">
-        <v>867</v>
-      </c>
-      <c r="L158" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M158" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N158" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="O158" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.3">
@@ -10979,16 +10981,16 @@
         <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D159" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E159" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F159" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G159" t="s">
         <v>106</v>
@@ -10997,25 +10999,25 @@
         <v>26</v>
       </c>
       <c r="I159" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J159" t="s">
         <v>396</v>
       </c>
       <c r="K159" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O159" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -11026,43 +11028,43 @@
         <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D160" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E160" t="s">
         <v>483</v>
       </c>
       <c r="F160" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G160" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H160" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I160" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J160" t="s">
         <v>408</v>
       </c>
       <c r="K160" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="L160" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M160" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N160" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O160" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -11073,43 +11075,43 @@
         <v>12</v>
       </c>
       <c r="C161" t="s">
+        <v>738</v>
+      </c>
+      <c r="D161" t="s">
+        <v>829</v>
+      </c>
+      <c r="E161" t="s">
         <v>740</v>
       </c>
-      <c r="D161" t="s">
-        <v>831</v>
-      </c>
-      <c r="E161" t="s">
-        <v>742</v>
-      </c>
       <c r="F161" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G161" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H161" t="s">
         <v>26</v>
       </c>
       <c r="I161" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J161" t="s">
         <v>408</v>
       </c>
       <c r="K161" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="L161" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M161" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N161" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O161" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.3">
@@ -11120,43 +11122,43 @@
         <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D162" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E162" t="s">
+        <v>881</v>
+      </c>
+      <c r="F162" t="s">
+        <v>882</v>
+      </c>
+      <c r="G162" t="s">
         <v>883</v>
-      </c>
-      <c r="F162" t="s">
-        <v>884</v>
-      </c>
-      <c r="G162" t="s">
-        <v>885</v>
       </c>
       <c r="H162" t="s">
         <v>78</v>
       </c>
       <c r="I162" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J162" t="s">
         <v>408</v>
       </c>
       <c r="K162" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O162" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.3">
@@ -11167,16 +11169,16 @@
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D163" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E163" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F163" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G163" t="s">
         <v>253</v>
@@ -11185,25 +11187,25 @@
         <v>26</v>
       </c>
       <c r="I163" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J163" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="K163" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="L163" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M163" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N163" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O163" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="164" spans="1:15" ht="38.25" x14ac:dyDescent="0.3">
@@ -11214,43 +11216,43 @@
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D164" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E164" t="s">
         <v>404</v>
       </c>
       <c r="F164" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G164" t="s">
         <v>106</v>
       </c>
       <c r="H164" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I164" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J164" t="s">
         <v>408</v>
       </c>
       <c r="K164" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L164" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M164" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="N164" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O164" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="165" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -11261,43 +11263,43 @@
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D165" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E165" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F165" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G165" t="s">
         <v>106</v>
       </c>
       <c r="H165" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I165" t="s">
+        <v>896</v>
+      </c>
+      <c r="J165" t="s">
+        <v>897</v>
+      </c>
+      <c r="K165" t="s">
         <v>898</v>
       </c>
-      <c r="J165" t="s">
+      <c r="L165" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M165" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N165" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="O165" t="s">
         <v>899</v>
-      </c>
-      <c r="K165" t="s">
-        <v>900</v>
-      </c>
-      <c r="L165" s="5" t="s">
-        <v>983</v>
-      </c>
-      <c r="M165" s="5" t="s">
-        <v>987</v>
-      </c>
-      <c r="N165" s="5" t="s">
-        <v>989</v>
-      </c>
-      <c r="O165" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.3">
@@ -11308,43 +11310,43 @@
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D166" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E166" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F166" t="s">
+        <v>900</v>
+      </c>
+      <c r="G166" t="s">
+        <v>901</v>
+      </c>
+      <c r="H166" t="s">
         <v>902</v>
       </c>
-      <c r="G166" t="s">
+      <c r="I166" t="s">
         <v>903</v>
-      </c>
-      <c r="H166" t="s">
-        <v>904</v>
-      </c>
-      <c r="I166" t="s">
-        <v>905</v>
       </c>
       <c r="J166" t="s">
         <v>248</v>
       </c>
       <c r="K166" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="L166" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M166" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N166" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O166" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="167" spans="1:15" ht="38.25" x14ac:dyDescent="0.3">
@@ -11355,43 +11357,43 @@
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D167" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E167" t="s">
         <v>404</v>
       </c>
       <c r="F167" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G167" t="s">
         <v>40</v>
       </c>
       <c r="H167" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I167" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J167" t="s">
         <v>414</v>
       </c>
       <c r="K167" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L167" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M167" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="N167" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O167" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="168" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -11402,43 +11404,43 @@
         <v>12</v>
       </c>
       <c r="C168" t="s">
+        <v>738</v>
+      </c>
+      <c r="D168" t="s">
+        <v>906</v>
+      </c>
+      <c r="E168" t="s">
         <v>740</v>
       </c>
-      <c r="D168" t="s">
-        <v>908</v>
-      </c>
-      <c r="E168" t="s">
-        <v>742</v>
-      </c>
       <c r="F168" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G168" t="s">
         <v>441</v>
       </c>
       <c r="H168" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I168" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J168" t="s">
         <v>61</v>
       </c>
       <c r="K168" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N168" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="O168" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.3">
@@ -11449,16 +11451,16 @@
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D169" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E169" t="s">
         <v>404</v>
       </c>
       <c r="F169" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G169" t="s">
         <v>355</v>
@@ -11473,19 +11475,19 @@
         <v>28</v>
       </c>
       <c r="K169" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M169" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N169" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O169" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="170" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -11496,43 +11498,43 @@
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D170" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E170" t="s">
         <v>404</v>
       </c>
       <c r="F170" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G170" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H170" t="s">
         <v>85</v>
       </c>
       <c r="I170" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J170" t="s">
         <v>28</v>
       </c>
       <c r="K170" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M170" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N170" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O170" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.3">
@@ -11543,43 +11545,43 @@
         <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D171" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E171" t="s">
         <v>404</v>
       </c>
       <c r="F171" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G171" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H171" t="s">
         <v>85</v>
       </c>
       <c r="I171" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J171" t="s">
         <v>408</v>
       </c>
       <c r="K171" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M171" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N171" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O171" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -11590,43 +11592,43 @@
         <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D172" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E172" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F172" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G172" t="s">
         <v>259</v>
       </c>
       <c r="H172" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I172" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J172" t="s">
         <v>408</v>
       </c>
       <c r="K172" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M172" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N172" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O172" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.3">
@@ -11637,43 +11639,43 @@
         <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D173" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E173" t="s">
         <v>404</v>
       </c>
       <c r="F173" t="s">
+        <v>933</v>
+      </c>
+      <c r="G173" t="s">
+        <v>934</v>
+      </c>
+      <c r="H173" t="s">
+        <v>891</v>
+      </c>
+      <c r="I173" t="s">
         <v>935</v>
-      </c>
-      <c r="G173" t="s">
-        <v>936</v>
-      </c>
-      <c r="H173" t="s">
-        <v>893</v>
-      </c>
-      <c r="I173" t="s">
-        <v>937</v>
       </c>
       <c r="J173" t="s">
         <v>408</v>
       </c>
       <c r="K173" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M173" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N173" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O173" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.3">
@@ -11684,43 +11686,43 @@
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D174" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E174" t="s">
         <v>404</v>
       </c>
       <c r="F174" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G174" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H174" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="I174" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J174" t="s">
         <v>408</v>
       </c>
       <c r="K174" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M174" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N174" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O174" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="175" spans="1:15" ht="38.25" x14ac:dyDescent="0.3">
@@ -11731,43 +11733,43 @@
         <v>12</v>
       </c>
       <c r="C175" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D175" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E175" t="s">
         <v>388</v>
       </c>
       <c r="F175" t="s">
+        <v>942</v>
+      </c>
+      <c r="G175" t="s">
+        <v>742</v>
+      </c>
+      <c r="H175" t="s">
+        <v>755</v>
+      </c>
+      <c r="I175" t="s">
+        <v>943</v>
+      </c>
+      <c r="J175" t="s">
         <v>944</v>
       </c>
-      <c r="G175" t="s">
-        <v>744</v>
-      </c>
-      <c r="H175" t="s">
-        <v>757</v>
-      </c>
-      <c r="I175" t="s">
+      <c r="K175" t="s">
         <v>945</v>
       </c>
-      <c r="J175" t="s">
+      <c r="L175" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="M175" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N175" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="O175" t="s">
         <v>946</v>
-      </c>
-      <c r="K175" t="s">
-        <v>947</v>
-      </c>
-      <c r="L175" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M175" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N175" s="5" t="s">
-        <v>985</v>
-      </c>
-      <c r="O175" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="176" spans="1:15" ht="51" x14ac:dyDescent="0.3">
@@ -11778,43 +11780,43 @@
         <v>12</v>
       </c>
       <c r="C176" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D176" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E176" t="s">
         <v>404</v>
       </c>
       <c r="F176" t="s">
+        <v>947</v>
+      </c>
+      <c r="G176" t="s">
+        <v>948</v>
+      </c>
+      <c r="H176" t="s">
         <v>949</v>
       </c>
-      <c r="G176" t="s">
+      <c r="I176" t="s">
         <v>950</v>
-      </c>
-      <c r="H176" t="s">
-        <v>951</v>
-      </c>
-      <c r="I176" t="s">
-        <v>952</v>
       </c>
       <c r="J176" t="s">
         <v>87</v>
       </c>
       <c r="K176" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M176" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N176" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O176" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="177" spans="1:15" ht="51" x14ac:dyDescent="0.3">
@@ -11825,43 +11827,43 @@
         <v>12</v>
       </c>
       <c r="C177" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D177" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E177" t="s">
         <v>404</v>
       </c>
       <c r="F177" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G177" t="s">
+        <v>948</v>
+      </c>
+      <c r="H177" t="s">
+        <v>954</v>
+      </c>
+      <c r="I177" t="s">
         <v>950</v>
-      </c>
-      <c r="H177" t="s">
-        <v>956</v>
-      </c>
-      <c r="I177" t="s">
-        <v>952</v>
       </c>
       <c r="J177" t="s">
         <v>87</v>
       </c>
       <c r="K177" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M177" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N177" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O177" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.3">
@@ -11872,43 +11874,43 @@
         <v>12</v>
       </c>
       <c r="C178" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D178" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E178" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F178" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G178" t="s">
         <v>17</v>
       </c>
       <c r="H178" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I178" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J178" t="s">
         <v>209</v>
       </c>
       <c r="K178" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M178" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N178" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O178" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -11919,43 +11921,43 @@
         <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D179" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E179" t="s">
         <v>404</v>
       </c>
       <c r="F179" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G179" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H179" t="s">
         <v>85</v>
       </c>
       <c r="I179" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J179" t="s">
         <v>188</v>
       </c>
       <c r="K179" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="L179" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M179" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="N179" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="N179" s="5" t="s">
-        <v>990</v>
-      </c>
       <c r="O179" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.3">
@@ -11966,43 +11968,43 @@
         <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D180" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E180" t="s">
         <v>483</v>
       </c>
       <c r="F180" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G180" t="s">
         <v>106</v>
       </c>
       <c r="H180" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I180" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J180" t="s">
         <v>209</v>
       </c>
       <c r="K180" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M180" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N180" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O180" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="181" spans="1:15" ht="25.5" x14ac:dyDescent="0.3">
@@ -12013,43 +12015,43 @@
         <v>12</v>
       </c>
       <c r="C181" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D181" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E181" t="s">
         <v>404</v>
       </c>
       <c r="F181" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G181" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H181" t="s">
         <v>26</v>
       </c>
       <c r="I181" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J181" t="s">
         <v>408</v>
       </c>
       <c r="K181" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M181" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="N181" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="O181" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
